--- a/static/docs/Informe Instrumentos.xlsx
+++ b/static/docs/Informe Instrumentos.xlsx
@@ -29,13 +29,16 @@
     <sheet name="Radiometria" sheetId="20" r:id="rId20"/>
     <sheet name="Nanometrologia" sheetId="21" r:id="rId21"/>
     <sheet name="Cantidad de sustancia" sheetId="22" r:id="rId22"/>
+    <sheet name="Inst. Diagnóstico" sheetId="23" r:id="rId23"/>
+    <sheet name="Estaciones Meteorológicas" sheetId="24" r:id="rId24"/>
+    <sheet name="Velocidad" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="541">
   <si>
     <t>Denominación</t>
   </si>
@@ -91,6 +94,9 @@
     <t>Medida con trazos rígida hasta 1 m</t>
   </si>
   <si>
+    <t>Medida con trazos rígida mayor de 1 m</t>
+  </si>
+  <si>
     <t>Medida con trazos telescópica</t>
   </si>
   <si>
@@ -133,7 +139,7 @@
     <t>Cinta de medición mayor de 50 m</t>
   </si>
   <si>
-    <t>Cinta de medición con plomada</t>
+    <t>Cinta de medición con plomada hasta 30 m</t>
   </si>
   <si>
     <t>Cinta de medición digital</t>
@@ -142,16 +148,40 @@
     <t>Metro comparador</t>
   </si>
   <si>
-    <t>Bloque patrón grado K</t>
-  </si>
-  <si>
-    <t>Bloque patrón grado 0</t>
-  </si>
-  <si>
-    <t>Bloque patrón grado 1</t>
-  </si>
-  <si>
-    <t>Bloque patrón grado 2</t>
+    <t>Bloque patrón grado K hasta 100 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado K hasta 500 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado K hasta 1000 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 0 hasta 100 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 0 hasta 500 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 0 hasta 1000 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 1 hasta 100 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 1 hasta 500 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 1 hasta 1000 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 2 hasta 100 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 2 hasta 500 mm</t>
+  </si>
+  <si>
+    <t>Bloque patrón grado 2 hasta 1000 mm</t>
   </si>
   <si>
     <t>Accesorio para bloques patrones</t>
@@ -289,7 +319,10 @@
     <t>Rugosímetro</t>
   </si>
   <si>
-    <t>Perfilómetro-perfilógrafo</t>
+    <t>Perfilómetro</t>
+  </si>
+  <si>
+    <t>Perfilógrafo</t>
   </si>
   <si>
     <t>Placa reticulada</t>
@@ -559,13 +592,13 @@
     <t>Medidor de tamaño de partículas</t>
   </si>
   <si>
-    <t>Medida angular prismática, Clase 1</t>
-  </si>
-  <si>
-    <t>Medida angular prismática, Clase 2</t>
-  </si>
-  <si>
-    <t>Escuadra cilíndrica</t>
+    <t>Medida angular prismática Clase 1</t>
+  </si>
+  <si>
+    <t>Medida angular prismática Clase 2</t>
+  </si>
+  <si>
+    <t>Escuadra cilíndrica hasta 200 mm</t>
   </si>
   <si>
     <t>Escuadra hasta 400 mm</t>
@@ -640,7 +673,16 @@
     <t>Mesa giratoria</t>
   </si>
   <si>
-    <t>Pesa clase F2 hasta 500 g</t>
+    <t>Medidor de diámetros interiores</t>
+  </si>
+  <si>
+    <t>Pesa clase F2 hasta 1 kg</t>
+  </si>
+  <si>
+    <t>Pesa clase F2 hasta 20 kg</t>
+  </si>
+  <si>
+    <t>Pesa clase M1-M3 hasta 1 kg</t>
   </si>
   <si>
     <t>Pesa clase M1-M3 hasta 5 kg</t>
@@ -703,13 +745,16 @@
     <t>Gancho de pesar mayor de 5000 kg</t>
   </si>
   <si>
-    <t>Dinamómetro portátil patrón</t>
-  </si>
-  <si>
-    <t>Dinamómetro universal patrón</t>
-  </si>
-  <si>
-    <t>Dinamómetro ordinario</t>
+    <t>Dinamómetro portátil patrón clase 0.5</t>
+  </si>
+  <si>
+    <t>Dinamómetro universal patrón clase 0.5</t>
+  </si>
+  <si>
+    <t>Dinamómetro ordinario clase 1</t>
+  </si>
+  <si>
+    <t>Dinamómetro ordinario clase 2</t>
   </si>
   <si>
     <t>Máquina de ensayos mecánicos tracción-compresión</t>
@@ -730,6 +775,9 @@
     <t>Llave de  torque</t>
   </si>
   <si>
+    <t>Equipo para calibrar llaves de torque</t>
+  </si>
+  <si>
     <t>Durómetro Brinell</t>
   </si>
   <si>
@@ -748,6 +796,9 @@
     <t>Microdurómetro</t>
   </si>
   <si>
+    <t xml:space="preserve">Durómetro portatil de variadas mediciones </t>
+  </si>
+  <si>
     <t>Manómetro de pistón y pesas</t>
   </si>
   <si>
@@ -757,7 +808,7 @@
     <t>Vacuómetro de pistón y pesas</t>
   </si>
   <si>
-    <t>Manómetro y vacuómetro , clase ≤ 0.5</t>
+    <t>Manómetro y vacuómetro clase 0.5</t>
   </si>
   <si>
     <t>Manómetro de deformación elástica indicador</t>
@@ -838,6 +889,9 @@
     <t>Calibrador digital</t>
   </si>
   <si>
+    <t>Manómetro de gases</t>
+  </si>
+  <si>
     <t>Higrómetro analógico</t>
   </si>
   <si>
@@ -955,19 +1009,16 @@
     <t>Tanque de almacenamiento soterrado mayor de 30 m3</t>
   </si>
   <si>
-    <t>Recipiente patron mayor de 200 L</t>
-  </si>
-  <si>
     <t>Aparato volumétrico operado con pistón</t>
   </si>
   <si>
     <t>Bureta digital</t>
   </si>
   <si>
-    <t>Pipetas automáticas</t>
-  </si>
-  <si>
-    <t>Picnómetros</t>
+    <t>Pipeta automática</t>
+  </si>
+  <si>
+    <t>Picnómetro</t>
   </si>
   <si>
     <t>Analizador de redes</t>
@@ -1006,7 +1057,10 @@
     <t>Fuente calibrada de CD</t>
   </si>
   <si>
-    <t>Galvanómetro o Indicador de cero</t>
+    <t>Galvanómetro</t>
+  </si>
+  <si>
+    <t>Indicador de ceros</t>
   </si>
   <si>
     <t>Medidor de corriente eléctrica de CA</t>
@@ -1174,7 +1228,10 @@
     <t>Osciloscopio universal</t>
   </si>
   <si>
-    <t>Frecuencímetro analógico y de lengüeta</t>
+    <t>Frecuencímetro analógico</t>
+  </si>
+  <si>
+    <t>Frecuencímetro de lengüeta</t>
   </si>
   <si>
     <t>Medidor de transistores</t>
@@ -1219,67 +1276,76 @@
     <t>Contador de energía eléctrica trifásico</t>
   </si>
   <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio hasta 100 ºC , vd(division)= 0,1  0,2  y 0,5 ºC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio  hasta 300 ºC , vd= 0,1  0,2  y 0,5 ºC    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio  hasta 100 ºC , vd=1 ºC   o mayor   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio  hasta 300 ºC ,    vd=1 ºC  o mayor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio  hasta 600 ºC , vd=1 ºC   o mayor </t>
-  </si>
-  <si>
-    <t>Termómetro metastático o Beckmann</t>
-  </si>
-  <si>
-    <t>Termómetro liquido en vidrio de máxima o mínima</t>
-  </si>
-  <si>
-    <t>Termómetro  veterinario o de incubadora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio con contacto eléctrico hasta 100 ºC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio con contacto eléctrico hasta 300  ºC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro liquido en vidrio con contacto eléctrico hasta 600  ºC  </t>
+    <t>Medidor de Relación de Transformación</t>
+  </si>
+  <si>
+    <t>Medidores y comprobadores de resistencia y aislamiento y para pequeños valores de resistencia de contacto</t>
+  </si>
+  <si>
+    <t>Maleta de calibración de reles y protecciones</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 100 °C con valor de división menor o igual a 0.1 °C</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 300 °C con valor de división menor o igual a 0.1 °C</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 100 °C con valor de división menor o igual a 0.2 °C</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 300 °C con valor de división menor o igual a 0.2 °C</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 100 °C con valor de división menor o igual a 0.5 °C</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 300 °C con valor de división menor o igual a 0.5 °C</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 100 °C con valor de división menor o igual a 1 °C</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio hasta 300 °C con valor de división menor o igual a 1 °C</t>
+  </si>
+  <si>
+    <t>Termómetro metastático</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio de máxima</t>
+  </si>
+  <si>
+    <t>Termómetro líquido en vidrio de mínima</t>
+  </si>
+  <si>
+    <t>Termómetro  veterinario</t>
+  </si>
+  <si>
+    <t>Termómetro liquido en vidrio con contacto eléctrico</t>
   </si>
   <si>
     <t xml:space="preserve">Termómetro de inmersión (oceanográfico)   </t>
   </si>
   <si>
-    <t xml:space="preserve">Termómetro manométrico indicador hasta 100 ºC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro manométrico indicador hasta 300 ºC   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro manométrico indicador hasta 600 ºC   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro manométrico de registro y control hasta 100 ºC   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro manométrico de registro y control hasta 300 ºC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termómetro manométrico de registro y control hasta 600  ºC  </t>
-  </si>
-  <si>
-    <t>Termómetro termoeléctrico (termopar) de uso común</t>
+    <t xml:space="preserve">Termómetro manométrico indicador </t>
+  </si>
+  <si>
+    <t>Termómetro manométrico de registro y control hasta 100 °C</t>
+  </si>
+  <si>
+    <t>Termómetro manométrico de registro y control hasta 300 °C</t>
+  </si>
+  <si>
+    <t>Termómetro manométrico de registro y control hasta 600 °C</t>
+  </si>
+  <si>
+    <t>Termómetro termoeléctrico (termopar)</t>
   </si>
   <si>
     <t>Termómetro de resistencia de uso común</t>
   </si>
   <si>
-    <t>Pirómetro óptico de uso común para temperatura de brillo</t>
+    <t>Pirómetro óptico para temperatura de brillo</t>
   </si>
   <si>
     <t xml:space="preserve">Pirómetro de radiación </t>
@@ -1294,34 +1360,55 @@
     <t>Termoreguladores electrónicos</t>
   </si>
   <si>
-    <t>Potenciómetros y puentes de temperatura</t>
-  </si>
-  <si>
-    <t>(Milivoltímetro pirométrico) y (logómetro indicadores) de (registro) y (control)</t>
-  </si>
-  <si>
-    <t>Termometro digital</t>
-  </si>
-  <si>
-    <t>Baño termostatico y pozo seco hasta 200ºC</t>
-  </si>
-  <si>
-    <t>Baño termostatico y pozo seco mayor de 200ºC</t>
+    <t>Potenciómetro</t>
+  </si>
+  <si>
+    <t>Puente de temperatura</t>
+  </si>
+  <si>
+    <t>Milivoltímetro pirométrico y (logómetro indicadores) de (registro) y (control)</t>
+  </si>
+  <si>
+    <t>Termómetro digital</t>
+  </si>
+  <si>
+    <t>Baño termostático y pozo seco hasta 200ºC</t>
+  </si>
+  <si>
+    <t>Baño termostático y pozo seco mayor de 200ºC</t>
+  </si>
+  <si>
+    <t>Cámara Termográfica</t>
+  </si>
+  <si>
+    <t>Pistola Termográfica</t>
+  </si>
+  <si>
+    <t>Termohigrómetro digital</t>
   </si>
   <si>
     <t>Cronómetro mecánico</t>
   </si>
   <si>
-    <t>Cronómetro eléctricos y electrónicos</t>
+    <t>Cronómetro eléctricos</t>
+  </si>
+  <si>
+    <t>Cronómetro electrónico</t>
   </si>
   <si>
     <t>Instalación para comprobar cronómetros</t>
   </si>
   <si>
-    <t>Reloj mecánico, eléctrico, electrónico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interruptor de tiempo (timer)   </t>
+    <t>Reloj mecánico</t>
+  </si>
+  <si>
+    <t>Reloj eléctrico</t>
+  </si>
+  <si>
+    <t>Reloj electrónico</t>
+  </si>
+  <si>
+    <t>Interruptor de tiempo</t>
   </si>
   <si>
     <t>Frecuencímetro electrónico digital</t>
@@ -1330,7 +1417,7 @@
     <t>Patrón de frecuencia</t>
   </si>
   <si>
-    <t>Sintetizaor de frecuencia</t>
+    <t>Sintetizador de frecuencia</t>
   </si>
   <si>
     <t>Frecuencímetro de resonancia</t>
@@ -1405,25 +1492,25 @@
     <t>Fotómetro</t>
   </si>
   <si>
-    <t>Materiales de referencia sólidos y líquidos de transmitancia espectral regular</t>
-  </si>
-  <si>
-    <t>Materiales de referencia sólidos y líquidos de reflectancia espectral regular</t>
-  </si>
-  <si>
-    <t>Materiales de referencia sólidos y líquidos de angulo de rotación del plano de polarización (Placas de cuarzo polarimétricas)</t>
-  </si>
-  <si>
-    <t>Materiales de referencia sólidos y líquidos de longitud de onda</t>
-  </si>
-  <si>
-    <t>Materiales de referencia de fluorescencia</t>
-  </si>
-  <si>
-    <t>Espectrofotómetro  Visible (transmitancia espectral regular , fluorescencia)</t>
-  </si>
-  <si>
-    <t>Espectrofotómetro Ultravioleta Visible (transmitancia espectral regular , fluorescencia)</t>
+    <t>Material de referencia sólidos y líquidos de transmitancia espectral regular</t>
+  </si>
+  <si>
+    <t>Material de referencia sólidos y líquidos de reflectancia espectral regular</t>
+  </si>
+  <si>
+    <t>Material de referencia sólidos y líquidos de angulo de rotación del plano de polarización</t>
+  </si>
+  <si>
+    <t>Material de referencia sólidos y líquidos de longitud de onda</t>
+  </si>
+  <si>
+    <t>Material de referencia de fluorescencia</t>
+  </si>
+  <si>
+    <t>Espectrofotómetro  Visible</t>
+  </si>
+  <si>
+    <t>Espectrofotómetro Ultravioleta Visible</t>
   </si>
   <si>
     <t>Espectrofotómetro Infrarrojo</t>
@@ -1432,7 +1519,7 @@
     <t>Polarimetro sacarimetro</t>
   </si>
   <si>
-    <t xml:space="preserve">Refractómetro Abbe de mesa </t>
+    <t>Refractómetro Abbe de mesa</t>
   </si>
   <si>
     <t>Refractómetro Abbe de mano</t>
@@ -1489,7 +1576,7 @@
     <t>Densímetro óptico</t>
   </si>
   <si>
-    <t>Materiales de referencia de densidad de líquidos</t>
+    <t>Material de referencia de densidad de líquidos</t>
   </si>
   <si>
     <t>Vacuómetro</t>
@@ -1498,7 +1585,7 @@
     <t>Gravímetro</t>
   </si>
   <si>
-    <t>Patron de viscosidad</t>
+    <t>Patrón de viscosidad</t>
   </si>
   <si>
     <t>Viscosímetros</t>
@@ -1513,6 +1600,9 @@
     <t>Esfera de integración</t>
   </si>
   <si>
+    <t>Medidor de radiación solar</t>
+  </si>
+  <si>
     <t>Microscopia de fuerza atómica</t>
   </si>
   <si>
@@ -1528,10 +1618,49 @@
     <t>Condudctividad electrolítica</t>
   </si>
   <si>
-    <t>Soluciones orgánicas (Soluciones de alcohol en agua a diferentes concentraciones) Etilómetros</t>
+    <t>Solución orgánicas</t>
   </si>
   <si>
     <t>Cromatógrafo de gases</t>
+  </si>
+  <si>
+    <t>Etilómetro</t>
+  </si>
+  <si>
+    <t>Medidores y analizadores de gases</t>
+  </si>
+  <si>
+    <t>Muestrador de polvo</t>
+  </si>
+  <si>
+    <t>Instrumento de medicion multifunción</t>
+  </si>
+  <si>
+    <t>Sitescan 250 Digital Flaw Detector</t>
+  </si>
+  <si>
+    <t>Medidor de Espesor Ultrasónico</t>
+  </si>
+  <si>
+    <t>Equipo de rayos x</t>
+  </si>
+  <si>
+    <t>Negatoscopio de iluminación LED</t>
+  </si>
+  <si>
+    <t>Defectoscopio Ultrasonico</t>
+  </si>
+  <si>
+    <t>Equipo Leuter (presion)</t>
+  </si>
+  <si>
+    <t>Marprime(presion)</t>
+  </si>
+  <si>
+    <t>Instalación compacta de meteorología</t>
+  </si>
+  <si>
+    <t>Tacómetro</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q158"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10264,6 +10393,536 @@
         <v>0</v>
       </c>
     </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0</v>
+      </c>
+      <c r="O159" s="2">
+        <v>0</v>
+      </c>
+      <c r="P159" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2">
+        <v>0</v>
+      </c>
+      <c r="M160" s="2">
+        <v>0</v>
+      </c>
+      <c r="N160" s="2">
+        <v>0</v>
+      </c>
+      <c r="O160" s="2">
+        <v>0</v>
+      </c>
+      <c r="P160" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2">
+        <v>0</v>
+      </c>
+      <c r="M161" s="2">
+        <v>0</v>
+      </c>
+      <c r="N161" s="2">
+        <v>0</v>
+      </c>
+      <c r="O161" s="2">
+        <v>0</v>
+      </c>
+      <c r="P161" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2">
+        <v>0</v>
+      </c>
+      <c r="M162" s="2">
+        <v>0</v>
+      </c>
+      <c r="N162" s="2">
+        <v>0</v>
+      </c>
+      <c r="O162" s="2">
+        <v>0</v>
+      </c>
+      <c r="P162" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2">
+        <v>0</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2">
+        <v>0</v>
+      </c>
+      <c r="M163" s="2">
+        <v>0</v>
+      </c>
+      <c r="N163" s="2">
+        <v>0</v>
+      </c>
+      <c r="O163" s="2">
+        <v>0</v>
+      </c>
+      <c r="P163" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2">
+        <v>0</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2">
+        <v>0</v>
+      </c>
+      <c r="M164" s="2">
+        <v>0</v>
+      </c>
+      <c r="N164" s="2">
+        <v>0</v>
+      </c>
+      <c r="O164" s="2">
+        <v>0</v>
+      </c>
+      <c r="P164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2">
+        <v>0</v>
+      </c>
+      <c r="M165" s="2">
+        <v>0</v>
+      </c>
+      <c r="N165" s="2">
+        <v>0</v>
+      </c>
+      <c r="O165" s="2">
+        <v>0</v>
+      </c>
+      <c r="P165" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2">
+        <v>0</v>
+      </c>
+      <c r="M166" s="2">
+        <v>0</v>
+      </c>
+      <c r="N166" s="2">
+        <v>0</v>
+      </c>
+      <c r="O166" s="2">
+        <v>0</v>
+      </c>
+      <c r="P166" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2">
+        <v>0</v>
+      </c>
+      <c r="M167" s="2">
+        <v>0</v>
+      </c>
+      <c r="N167" s="2">
+        <v>0</v>
+      </c>
+      <c r="O167" s="2">
+        <v>0</v>
+      </c>
+      <c r="P167" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2">
+        <v>0</v>
+      </c>
+      <c r="K168" s="2">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2">
+        <v>0</v>
+      </c>
+      <c r="M168" s="2">
+        <v>0</v>
+      </c>
+      <c r="N168" s="2">
+        <v>0</v>
+      </c>
+      <c r="O168" s="2">
+        <v>0</v>
+      </c>
+      <c r="P168" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10271,7 +10930,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10336,7 +10995,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -10389,7 +11048,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -10442,7 +11101,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -10495,7 +11154,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -10548,7 +11207,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -10601,7 +11260,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -10654,7 +11313,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -10707,7 +11366,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -10760,7 +11419,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -10813,7 +11472,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -10866,7 +11525,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -10919,7 +11578,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -10972,7 +11631,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -11025,7 +11684,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -11078,7 +11737,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -11131,7 +11790,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -11184,7 +11843,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -11237,7 +11896,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -11290,7 +11949,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -11343,7 +12002,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -11396,7 +12055,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -11449,7 +12108,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -11502,7 +12161,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -11555,7 +12214,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -11608,7 +12267,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -11661,7 +12320,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -11714,7 +12373,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -11767,7 +12426,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -11820,7 +12479,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>269</v>
+        <v>443</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -11838,10 +12497,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -11862,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -11873,7 +12532,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>422</v>
+        <v>286</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -11891,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -11926,7 +12585,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -11974,6 +12633,218 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
         <v>0</v>
       </c>
     </row>
@@ -11984,7 +12855,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12049,7 +12920,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -12102,7 +12973,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -12155,7 +13026,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -12208,7 +13079,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -12261,7 +13132,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -12314,7 +13185,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -12367,7 +13238,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -12420,7 +13291,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -12473,7 +13344,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -12526,7 +13397,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -12579,7 +13450,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -12632,7 +13503,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -12685,7 +13556,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -12733,6 +13604,218 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -12808,7 +13891,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -12861,7 +13944,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -12914,7 +13997,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -12967,7 +14050,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -13020,7 +14103,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -13073,7 +14156,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -13126,7 +14209,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -13179,7 +14262,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -13232,7 +14315,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -13285,7 +14368,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -13338,7 +14421,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -13391,7 +14474,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -13514,7 +14597,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -13567,7 +14650,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -13620,7 +14703,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -13673,7 +14756,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -13796,7 +14879,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -13849,7 +14932,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -13902,7 +14985,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -13955,7 +15038,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -14008,7 +15091,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -14061,7 +15144,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -14114,7 +15197,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -14167,7 +15250,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -14220,7 +15303,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -14273,7 +15356,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -14326,7 +15409,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -14379,7 +15462,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -14432,7 +15515,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -14485,7 +15568,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -14538,7 +15621,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -14591,7 +15674,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -14644,7 +15727,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -14697,7 +15780,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -14750,7 +15833,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -14803,7 +15886,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -14856,7 +15939,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -14909,7 +15992,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -14962,7 +16045,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -15085,7 +16168,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -15138,7 +16221,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -15191,7 +16274,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -15244,7 +16327,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -15297,7 +16380,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -15350,7 +16433,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -15403,7 +16486,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -15526,7 +16609,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -15579,7 +16662,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -15632,7 +16715,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -15685,7 +16768,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -15738,7 +16821,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -15791,7 +16874,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -15914,7 +16997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -16037,7 +17120,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -16160,7 +17243,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -16213,7 +17296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -16271,7 +17354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16336,7 +17419,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -16389,7 +17472,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -16442,7 +17525,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -16495,7 +17578,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -16548,7 +17631,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -16601,7 +17684,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -16654,7 +17737,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -16707,7 +17790,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -16760,7 +17843,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -16813,7 +17896,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -16866,7 +17949,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -16919,7 +18002,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -16972,7 +18055,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -17025,7 +18108,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -17078,7 +18161,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -17131,7 +18214,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -17184,7 +18267,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -17237,7 +18320,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -17290,7 +18373,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -17343,7 +18426,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -17396,7 +18479,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -17449,7 +18532,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -17502,7 +18585,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -17555,7 +18638,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -17608,7 +18691,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -17661,7 +18744,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -17714,7 +18797,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -17762,6 +18845,59 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
         <v>0</v>
       </c>
     </row>
@@ -17772,7 +18908,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17837,7 +18973,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -17890,7 +19026,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -17943,7 +19079,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -17996,7 +19132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -18044,6 +19180,59 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18119,7 +19308,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -18172,7 +19361,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -18225,7 +19414,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -18283,7 +19472,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18348,7 +19537,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -18401,7 +19590,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -18454,7 +19643,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -18507,7 +19696,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -18555,6 +19744,218 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18563,9 +19964,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18630,7 +20031,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>532</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -18683,7 +20084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>533</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -18736,7 +20137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -18745,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -18789,7 +20190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>535</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -18842,7 +20243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>536</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -18895,7 +20296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>206</v>
+        <v>537</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -18948,7 +20349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>538</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -18996,748 +20397,6 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
         <v>0</v>
       </c>
     </row>
@@ -19746,9 +20405,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19813,7 +20472,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>539</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -19861,483 +20520,6 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -20346,9 +20528,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20413,7 +20595,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>540</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -20466,7 +20648,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>466</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -20514,218 +20696,6 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -20734,9 +20704,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20801,7 +20771,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -20854,7 +20824,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -20907,7 +20877,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -20960,7 +20930,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -21013,7 +20983,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -21066,7 +21036,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -21119,7 +21089,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -21172,7 +21142,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -21225,7 +21195,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -21278,7 +21248,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -21331,7 +21301,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -21384,7 +21354,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -21437,7 +21407,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -21490,7 +21460,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -21543,7 +21513,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -21596,7 +21566,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -21649,7 +21619,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -21702,7 +21672,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -21755,7 +21725,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -21808,7 +21778,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -21861,7 +21831,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -21914,7 +21884,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -21967,7 +21937,2390 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="511" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="511" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="511" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
         <v>256</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -22020,7 +24373,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -22073,7 +24426,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -22126,7 +24479,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -22179,7 +24532,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -22197,7 +24550,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -22232,7 +24585,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -22285,7 +24638,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -22303,7 +24656,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -22338,7 +24691,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -22391,7 +24744,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -22412,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -22439,165 +24792,6 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
         <v>0</v>
       </c>
     </row>
@@ -22673,7 +24867,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -22726,7 +24920,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -22779,7 +24973,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -22832,7 +25026,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -22890,7 +25084,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22955,7 +25149,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -23008,7 +25202,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -23061,7 +25255,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -23114,7 +25308,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -23167,7 +25361,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -23220,7 +25414,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -23273,7 +25467,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -23326,7 +25520,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -23379,7 +25573,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -23432,7 +25626,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -23485,7 +25679,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -23538,7 +25732,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -23591,7 +25785,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -23644,7 +25838,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -23697,7 +25891,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -23750,7 +25944,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -23803,7 +25997,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -23856,7 +26050,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -23909,7 +26103,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -23962,7 +26156,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -24015,7 +26209,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -24068,7 +26262,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -24121,7 +26315,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -24174,7 +26368,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -24227,7 +26421,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -24280,7 +26474,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -24333,7 +26527,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -24386,7 +26580,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -24439,7 +26633,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -24492,7 +26686,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -24545,7 +26739,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -24598,7 +26792,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -24651,7 +26845,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -24704,7 +26898,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -24757,7 +26951,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -24810,7 +27004,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -24863,7 +27057,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -24916,7 +27110,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -24969,7 +27163,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -25017,59 +27211,6 @@
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
         <v>0</v>
       </c>
     </row>
@@ -25080,7 +27221,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25145,7 +27286,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -25163,10 +27304,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -25198,7 +27339,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -25251,7 +27392,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -25269,10 +27410,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -25304,7 +27445,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -25357,7 +27498,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -25410,7 +27551,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -25463,7 +27604,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -25516,7 +27657,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -25569,7 +27710,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -25622,7 +27763,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -25675,7 +27816,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -25728,7 +27869,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -25781,7 +27922,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -25834,7 +27975,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -25887,7 +28028,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -25940,7 +28081,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -25993,7 +28134,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -26046,7 +28187,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -26099,7 +28240,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -26152,7 +28293,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -26205,7 +28346,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -26258,7 +28399,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -26311,7 +28452,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -26364,7 +28505,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -26417,7 +28558,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -26470,7 +28611,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -26523,7 +28664,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -26576,7 +28717,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -26629,7 +28770,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -26682,7 +28823,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -26735,7 +28876,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -26788,7 +28929,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -26841,7 +28982,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -26894,7 +29035,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -26947,7 +29088,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -27000,7 +29141,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -27053,7 +29194,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -27106,7 +29247,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -27159,7 +29300,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -27212,7 +29353,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -27265,7 +29406,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -27318,7 +29459,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -27371,7 +29512,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -27424,7 +29565,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -27477,7 +29618,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -27498,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -27530,7 +29671,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -27548,10 +29689,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -27560,7 +29701,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -27572,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
@@ -27583,7 +29724,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -27601,7 +29742,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -27613,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
@@ -27625,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -27636,7 +29777,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -27689,7 +29830,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -27742,7 +29883,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -27795,7 +29936,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -27848,7 +29989,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -27901,7 +30042,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -27954,7 +30095,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -28007,7 +30148,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -28060,7 +30201,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -28113,7 +30254,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -28166,7 +30307,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -28219,7 +30360,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -28272,7 +30413,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -28325,7 +30466,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -28378,7 +30519,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="2" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -28431,7 +30572,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -28484,7 +30625,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -28537,7 +30678,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -28590,7 +30731,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -28643,7 +30784,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -28696,7 +30837,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -28749,7 +30890,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -28802,7 +30943,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -28855,7 +30996,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -28908,7 +31049,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -28961,7 +31102,7 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -29014,7 +31155,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -29067,7 +31208,7 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -29120,7 +31261,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -29173,7 +31314,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -29226,7 +31367,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -29279,7 +31420,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -29332,7 +31473,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -29385,7 +31526,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -29438,7 +31579,7 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -29491,7 +31632,7 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -29544,7 +31685,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -29592,6 +31733,271 @@
         <v>0</v>
       </c>
       <c r="Q85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <v>0</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="2">
         <v>0</v>
       </c>
     </row>
